--- a/StructureDefinition-ext-R5-ObservationDefinition.versionAlgorithm.xlsx
+++ b/StructureDefinition-ext-R5-ObservationDefinition.versionAlgorithm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `ObservationDefinition.versionAlgorithm[x]` 0..1 `Coding, string`
 Following are the generation technical comments:
-Element `ObservationDefinition.versionAlgorithm[x]` is mapped to FHIR R4 structure `ObservationDefinition`, but has no target element specified.</t>
+Element `ObservationDefinition.versionAlgorithm[x]` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:ObservationDefinition</t>
   </si>
   <si>
     <t>ID</t>

--- a/StructureDefinition-ext-R5-ObservationDefinition.versionAlgorithm.xlsx
+++ b/StructureDefinition-ext-R5-ObservationDefinition.versionAlgorithm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `ObservationDefinition.versionAlgorithm[x]` 0..1 `Coding, string`
 Following are the generation technical comments:
-Element `ObservationDefinition.versionAlgorithm[x]` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+Element `ObservationDefinition.versionAlgorithm[x]` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
